--- a/Nono-GIS/转表测试/sample/评估方法-样表.xlsx
+++ b/Nono-GIS/转表测试/sample/评估方法-样表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\体积比较大的那种报告\地价监测\2023黄石第四季度\1_新体系测算\转表测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\体积比较大的那种报告\地价监测\2023黄石第四季度\1_新体系测算\转表测试\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D6A17-872D-42AE-9E27-78A1BD96031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486BACFF-2E17-4163-8E14-A06761BB143C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,56 @@
     <sheet name="市场比较法" sheetId="24" r:id="rId1"/>
     <sheet name="收益还原法" sheetId="25" r:id="rId2"/>
     <sheet name="成本逼近法" sheetId="26" r:id="rId3"/>
-    <sheet name="剩余法-待开发" sheetId="27" r:id="rId4"/>
-    <sheet name="剩余法-现有不动产" sheetId="28" r:id="rId5"/>
+    <sheet name="剩余法(待开发)" sheetId="27" r:id="rId4"/>
+    <sheet name="剩余法(现有不动产)" sheetId="28" r:id="rId5"/>
     <sheet name="样本修正法" sheetId="29" r:id="rId6"/>
+    <sheet name="rent" sheetId="30" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dingkang Teng</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{0D5488E7-6449-450E-9080-4849CCD140BE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>beforerow{% for row in rows %}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{F9BD3F02-192F-4648-B460-783E9D176D9D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">beforerow{% endfor %}
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="339">
   <si>
     <t>表7-1 监测点评估【市场比较法】技术要点表</t>
   </si>
@@ -965,338 +1005,437 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>房屋成新度（%）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Newness}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Present_value}}</t>
+  </si>
+  <si>
+    <t>{{Income_total}}</t>
+  </si>
+  <si>
+    <t>{{Income_land}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Income_floor}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Income_note}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Acquisition_total}}</t>
+  </si>
+  <si>
+    <t>{{Expropriation_unit}}</t>
+  </si>
+  <si>
+    <t>{{Market_unit}}</t>
+  </si>
+  <si>
+    <t>{{Develop_total}}</t>
+  </si>
+  <si>
+    <t>{{Develop_unit}}</t>
+  </si>
+  <si>
+    <t>{{Tax_total}}</t>
+  </si>
+  <si>
+    <t>{{Cost_develop_time}}</t>
+  </si>
+  <si>
+    <t>{{Cost_interest}}</t>
+  </si>
+  <si>
+    <t>{{Cost_total}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Cost_usetime}}</t>
+  </si>
+  <si>
+    <t>{{Cost_land}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Cost_floor}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Cost_note}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_dev}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_devunit}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_Sample1_price}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_Sample1_add}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Land_rank}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Evulate_time}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Land_usetime}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_Sample1_usage}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_Sample1_rank}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_Sample1_plot}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_Sample1_time}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample1_usetime}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample1_transaction}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample1_market}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample1_location}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample1_physical}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample1_rights}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample1_result}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_price}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_add}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_usage}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_rank}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_plot}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_time}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_usetime}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_transaction}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_market}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_location}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_physical}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_rights}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample2_result}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_price}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_add}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_usage}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_rank}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_plot}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_time}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_usetime}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_transaction}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_market}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_location}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_physical}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_rights}}</t>
+  </si>
+  <si>
+    <t>{{Res_Sample3_result}}</t>
+  </si>
+  <si>
+    <t>{{Res_income_dev}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_income_devunit}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_income_real}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_income_realunit}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_income_cost}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_income_costuit}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_income_wheter}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_income_time}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Res_income_reduction}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_interest}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_rate}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_cost}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_costunit}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_devtime}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_profit}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_land_total}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_land}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_floor}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Residual_notes}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Stander_ID}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Appraiser}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>填表单位：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>填表人 ：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{filling_org}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{{Depreciation_rate}}</t>
-  </si>
-  <si>
-    <t>房屋成新度（%）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Newness}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Present_value}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{Com_reduction}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{Real_reduction}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{Land_reduction}}</t>
-  </si>
-  <si>
-    <t>{{Income_total}}</t>
-  </si>
-  <si>
-    <t>{{Income_land}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Income_floor}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Income_note}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Acquisition_total}}</t>
-  </si>
-  <si>
-    <t>{{Expropriation_unit}}</t>
-  </si>
-  <si>
-    <t>{{Market_unit}}</t>
-  </si>
-  <si>
-    <t>{{Develop_total}}</t>
-  </si>
-  <si>
-    <t>{{Develop_unit}}</t>
-  </si>
-  <si>
-    <t>{{Tax_total}}</t>
-  </si>
-  <si>
-    <t>{{Cost_develop_time}}</t>
-  </si>
-  <si>
-    <t>{{Cost_interest}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{Cost_profit}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{Cost_added}}</t>
-  </si>
-  <si>
-    <t>{{Cost_total}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Cost_usetime}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{Cost_reduction}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{Cost_other}}</t>
-  </si>
-  <si>
-    <t>{{Cost_land}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Cost_floor}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Cost_note}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_dev}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_devunit}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_Sample1_price}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_Sample1_add}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Land_rank}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Evulate_time}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Land_usetime}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Real_plot_ratio}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_Sample1_usage}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_Sample1_rank}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_Sample1_plot}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_Sample1_time}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample1_usetime}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample1_transaction}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample1_market}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample1_location}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample1_physical}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample1_rights}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample1_result}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_price}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_add}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_usage}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_rank}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_plot}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_time}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_usetime}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_transaction}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_market}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_location}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_physical}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_rights}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample2_result}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_price}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_add}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_usage}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_rank}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_plot}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_time}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_usetime}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_transaction}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_market}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_location}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_physical}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_rights}}</t>
-  </si>
-  <si>
-    <t>{{Res_Sample3_result}}</t>
-  </si>
-  <si>
-    <t>{{Res_income_dev}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_income_devunit}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_income_real}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_income_realunit}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_income_cost}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_income_costuit}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_income_wheter}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_income_time}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Res_income_reduction}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_interest}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_rate}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_cost}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_costunit}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_devtime}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_profit}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_land_total}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_land}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_floor}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Residual_notes}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Stander_ID}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Appraiser}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>填表单位：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>填表人 ：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{filling_org}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{date}}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>填表日期：</t>
+  </si>
+  <si>
+    <t>{{Appraiser_ID}}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>估价师证号：</t>
+  </si>
+  <si>
+    <t>填表说明：
+1.此表用于房地租金和房地产价格的初始登记与变更登记。
+2.租金和房价均为含税价。</t>
+  </si>
+  <si>
+    <t>{{row[3]}}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{row[2]}}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{row[1]}}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>（代表的）区域房地产价格（元/平方米）</t>
+  </si>
+  <si>
+    <t>（代表的）区域房地租金（元/平方米·月）</t>
+  </si>
+  <si>
+    <t>监测点编码</t>
+  </si>
+  <si>
+    <t>季度</t>
+  </si>
+  <si>
+    <t>{{quarter}}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 年／第</t>
+  </si>
+  <si>
+    <t>{{year}}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>{{city}}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>表3 房地租金、房地产价格统计表</t>
+  </si>
+  <si>
+    <t>{{row[0]}}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Sample_NO1}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Sample_NO2}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Sample_NO3}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1312,7 +1451,7 @@
     <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="181" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1333,16 +1472,19 @@
     <font>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1469,6 +1611,62 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1484,7 +1682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1680,16 +1878,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1834,9 +2087,6 @@
     <xf numFmtId="178" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="181" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1852,9 +2102,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1879,10 +2126,52 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -1891,6 +2180,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1900,217 +2210,229 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2125,19 +2447,41 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{1D4CD6AE-4782-4897-9D2D-CEE20EDBCBB7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2434,7 +2778,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11:W11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -2452,45 +2796,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="46.5" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="38.25" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>3</v>
@@ -2502,17 +2846,17 @@
       <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="K2" s="81"/>
+      <c r="K2" s="82"/>
       <c r="L2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="147" t="s">
+      <c r="M2" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="64"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
@@ -2522,64 +2866,64 @@
       <c r="Q2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="81"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="82"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73" t="s">
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="73" t="s">
+      <c r="U3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="73" t="s">
+      <c r="V3" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="73"/>
+      <c r="W3" s="95"/>
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A4" s="68"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="64"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
@@ -2622,8 +2966,8 @@
       <c r="S4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
       <c r="V4" s="12" t="s">
         <v>32</v>
       </c>
@@ -2632,30 +2976,30 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="8" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="68"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="53" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="52" t="s">
         <v>144</v>
       </c>
       <c r="K5" s="12" t="s">
@@ -2682,7 +3026,7 @@
       <c r="R5" s="47">
         <v>1</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="55" t="s">
         <v>196</v>
       </c>
       <c r="T5" s="12" t="s">
@@ -2691,25 +3035,25 @@
       <c r="U5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="74" t="s">
+      <c r="V5" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="W5" s="74" t="s">
+      <c r="W5" s="96" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="68"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="66"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="23" t="s">
         <v>147</v>
       </c>
@@ -2719,7 +3063,7 @@
       <c r="H6" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="76" t="s">
         <v>150</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -2734,45 +3078,45 @@
       <c r="M6" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="P6" s="49" t="s">
+      <c r="P6" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="R6" s="49" t="s">
+      <c r="R6" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="S6" s="55" t="s">
         <v>195</v>
       </c>
       <c r="T6" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
     </row>
     <row r="7" spans="1:23" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A7" s="68"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="23" t="s">
         <v>163</v>
       </c>
@@ -2782,7 +3126,7 @@
       <c r="H7" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="76" t="s">
         <v>166</v>
       </c>
       <c r="J7" s="12" t="s">
@@ -2797,19 +3141,19 @@
       <c r="M7" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="Q7" s="49" t="s">
+      <c r="Q7" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="R7" s="49" t="s">
+      <c r="R7" s="48" t="s">
         <v>175</v>
       </c>
       <c r="S7" s="16" t="s">
@@ -2818,24 +3162,24 @@
       <c r="T7" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="U7" s="56" t="s">
+      <c r="U7" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
     </row>
     <row r="8" spans="1:23" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="23" t="s">
         <v>180</v>
       </c>
@@ -2845,7 +3189,7 @@
       <c r="H8" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="76" t="s">
         <v>183</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -2860,19 +3204,19 @@
       <c r="M8" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="P8" s="49" t="s">
+      <c r="P8" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="Q8" s="49" t="s">
+      <c r="Q8" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="R8" s="49" t="s">
+      <c r="R8" s="48" t="s">
         <v>192</v>
       </c>
       <c r="S8" s="16" t="s">
@@ -2881,104 +3225,104 @@
       <c r="T8" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="U8" s="56" t="s">
+      <c r="U8" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
     </row>
     <row r="9" spans="1:23" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
     </row>
     <row r="10" spans="1:23" ht="164.25" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
     </row>
     <row r="11" spans="1:23" ht="33" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="125" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
+        <v>301</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
       <c r="F11" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="G11" s="125" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="50" t="s">
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="125" t="s">
+      <c r="T11" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="72"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="94"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3004,12 +3348,8 @@
     <protectedRange sqref="S4" name="区域1_41_1_4_2"/>
   </protectedRanges>
   <mergeCells count="24">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:W9"/>
     <mergeCell ref="A10:W10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:R11"/>
@@ -3026,8 +3366,12 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:W9"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
@@ -3053,7 +3397,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+      <selection activeCell="M11" sqref="M11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -3073,55 +3417,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="45" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="84" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="101" t="s">
         <v>136</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>138</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>202</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="52" t="s">
         <v>203</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="52" t="s">
         <v>204</v>
       </c>
       <c r="L2" s="12" t="s">
@@ -3133,130 +3477,130 @@
       <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="P2" s="81"/>
+      <c r="P2" s="82"/>
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="86" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73" t="s">
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="73" t="s">
+      <c r="E4" s="95"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73" t="s">
+      <c r="H4" s="95"/>
+      <c r="I4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" ht="111" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="95"/>
+      <c r="B5" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="83" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="59" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="83" t="s">
+      <c r="H5" s="95"/>
+      <c r="I5" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73" t="s">
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73" t="s">
+      <c r="N5" s="95"/>
+      <c r="O5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="73"/>
+      <c r="P5" s="95"/>
     </row>
     <row r="6" spans="1:24" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73" t="s">
+      <c r="A6" s="95"/>
+      <c r="B6" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73" t="s">
+      <c r="C6" s="95"/>
+      <c r="D6" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="83" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="68" t="s">
+      <c r="F6" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -3264,18 +3608,18 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="37.5">
-      <c r="A7" s="73"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="73"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="12" t="s">
         <v>60</v>
       </c>
@@ -3285,127 +3629,127 @@
       <c r="K7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="M8" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="N8" s="95"/>
+      <c r="O8" s="103" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="M8" s="83" t="s">
-        <v>224</v>
-      </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="P8" s="73"/>
+      <c r="P8" s="95"/>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
+      <c r="B9" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="1:24" ht="130.5" customHeight="1">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
     </row>
     <row r="11" spans="1:24" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="77" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="81" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="J11" s="82"/>
-      <c r="K11" s="81"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="82"/>
       <c r="L11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="M11" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="81"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="107"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3420,6 +3764,23 @@
     <protectedRange sqref="E2" name="区域1_2_3"/>
   </protectedRanges>
   <mergeCells count="33">
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:E3"/>
@@ -3430,29 +3791,12 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:P11"/>
     <mergeCell ref="L3:L7"/>
     <mergeCell ref="M5:N7"/>
     <mergeCell ref="O5:P7"/>
     <mergeCell ref="M3:P4"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -3474,7 +3818,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+      <selection activeCell="Q8" sqref="Q8:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -3493,127 +3837,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="54.75" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" s="8" customFormat="1" ht="60.95" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="101" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>138</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>202</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="95"/>
       <c r="K2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="M2" s="68"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="P2" s="64"/>
+      <c r="P2" s="85"/>
       <c r="Q2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="69.95" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="97" t="s">
+      <c r="M3" s="117"/>
+      <c r="N3" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="68" t="s">
+      <c r="Q3" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" ht="141.94999999999999" customHeight="1">
-      <c r="A4" s="68"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="10" t="s">
         <v>74</v>
       </c>
@@ -3632,165 +3976,165 @@
       <c r="G4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="119"/>
       <c r="N4" s="10" t="s">
         <v>77</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="68" t="s">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68" t="s">
+      <c r="R4" s="87"/>
+      <c r="S4" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="68"/>
+      <c r="T4" s="87"/>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A5" s="68"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="J5" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="L5" s="120" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="O5" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q5" s="86" t="s">
         <v>233</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="R5" s="87"/>
+      <c r="S5" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="L5" s="94" t="s">
-        <v>237</v>
-      </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q5" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="R5" s="68"/>
-      <c r="S5" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="T5" s="68"/>
+      <c r="T5" s="87"/>
     </row>
     <row r="6" spans="1:20" s="8" customFormat="1" ht="86.25" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
+      <c r="B6" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
     </row>
     <row r="7" spans="1:20" ht="141.75" customHeight="1">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
     </row>
     <row r="8" spans="1:20" ht="33" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
+      <c r="B8" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
       <c r="O8" s="12"/>
       <c r="P8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="83" t="s">
+      <c r="Q8" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3812,17 +4156,6 @@
     <protectedRange sqref="E2" name="区域1_2_3"/>
   </protectedRanges>
   <mergeCells count="27">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A7:T7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="G8:N8"/>
@@ -3839,6 +4172,17 @@
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="B6:T6"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -3859,7 +4203,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="T17" sqref="T17:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -3881,121 +4225,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="42" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
     </row>
     <row r="2" spans="1:21" ht="56.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="128" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>138</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>202</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
       <c r="M2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="O2" s="68"/>
+      <c r="O2" s="87"/>
       <c r="P2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="56" t="s">
         <v>205</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="83" t="s">
+      <c r="S2" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
     </row>
     <row r="3" spans="1:21" ht="48" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="68" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="73" t="s">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73" t="s">
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="73" t="s">
+      <c r="U3" s="95" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="37.5">
-      <c r="A4" s="68"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="12" t="s">
         <v>74</v>
       </c>
@@ -4008,20 +4352,20 @@
       <c r="F4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="73"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="12" t="s">
         <v>120</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="64"/>
+      <c r="L4" s="85"/>
       <c r="M4" s="14" t="s">
         <v>21</v>
       </c>
@@ -4043,17 +4387,17 @@
       <c r="S4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
     </row>
     <row r="5" spans="1:21" ht="38.1" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="83" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>245</v>
+      <c r="A5" s="87"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -4061,25 +4405,25 @@
       <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="95"/>
+      <c r="I5" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>250</v>
+      <c r="J5" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="91"/>
+      <c r="M5" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>242</v>
       </c>
       <c r="O5" s="16">
         <v>1</v>
@@ -4104,459 +4448,459 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="38.1" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="95"/>
+      <c r="I6" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="K6" s="145" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="134"/>
+      <c r="M6" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="N6" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="58" t="s">
+      <c r="O6" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="S6" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="T6" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="K6" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="L6" s="99"/>
-      <c r="M6" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="60" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="38.1" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="145" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" s="134"/>
+      <c r="M7" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q7" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="R7" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="58" t="s">
+      <c r="S7" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="T7" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K7" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="L7" s="99"/>
-      <c r="M7" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="U7" s="62" t="s">
+      <c r="U7" s="60" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="38.1" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="95"/>
+      <c r="I8" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" s="145" t="s">
+        <v>271</v>
+      </c>
+      <c r="L8" s="134"/>
+      <c r="M8" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="R8" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="58" t="s">
+      <c r="S8" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="T8" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="K8" s="70" t="s">
-        <v>280</v>
-      </c>
-      <c r="L8" s="99"/>
-      <c r="M8" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="U8" s="62" t="s">
+      <c r="U8" s="60" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" customHeight="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="119" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119" t="s">
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="86" t="s">
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="86"/>
-      <c r="T9" s="104" t="s">
+      <c r="S9" s="102"/>
+      <c r="T9" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="U9" s="104" t="s">
+      <c r="U9" s="144" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="54" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="68" t="s">
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="97" t="s">
+      <c r="J10" s="87"/>
+      <c r="K10" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="64"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="85"/>
       <c r="O10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="73" t="s">
+      <c r="P10" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
     </row>
     <row r="11" spans="1:21" ht="52.5" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="83" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="123" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G11" s="124"/>
       <c r="H11" s="124"/>
       <c r="I11" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="124"/>
+      <c r="K11" s="99" t="s">
+        <v>283</v>
+      </c>
+      <c r="L11" s="83"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="P11" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="140" t="s">
+        <v>286</v>
+      </c>
+      <c r="S11" s="141"/>
+      <c r="T11" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="54" customHeight="1">
+      <c r="A12" s="122"/>
+      <c r="B12" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="135"/>
+      <c r="O12" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+    </row>
+    <row r="13" spans="1:21" ht="54" customHeight="1">
+      <c r="A13" s="122"/>
+      <c r="B13" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="129"/>
+      <c r="F13" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="85"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="129" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="129"/>
+    </row>
+    <row r="14" spans="1:21" ht="54" customHeight="1">
+      <c r="A14" s="122"/>
+      <c r="B14" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="133" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="134"/>
+      <c r="F14" s="136" t="s">
         <v>291</v>
       </c>
-      <c r="J11" s="124"/>
-      <c r="K11" s="63" t="s">
+      <c r="G14" s="134"/>
+      <c r="H14" s="136" t="s">
         <v>292</v>
       </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="53" t="s">
+      <c r="I14" s="134"/>
+      <c r="J14" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="P11" s="83" t="s">
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="129" t="s">
         <v>294</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="107" t="s">
+      <c r="N14" s="129"/>
+      <c r="O14" s="131" t="s">
         <v>295</v>
       </c>
-      <c r="S11" s="108"/>
-      <c r="T11" s="58" t="s">
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="132" t="s">
         <v>296</v>
       </c>
-      <c r="U11" s="53" t="s">
+      <c r="S14" s="122"/>
+      <c r="T14" s="132" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="54" customHeight="1">
-      <c r="A12" s="106"/>
-      <c r="B12" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" s="105"/>
-      <c r="O12" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-    </row>
-    <row r="13" spans="1:21" ht="54" customHeight="1">
-      <c r="A13" s="106"/>
-      <c r="B13" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="101"/>
-    </row>
-    <row r="14" spans="1:21" ht="54" customHeight="1">
-      <c r="A14" s="106"/>
-      <c r="B14" s="117" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="118" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="103" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="103" t="s">
-        <v>301</v>
-      </c>
-      <c r="I14" s="99"/>
-      <c r="J14" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="117" t="s">
-        <v>303</v>
-      </c>
-      <c r="N14" s="101"/>
-      <c r="O14" s="117" t="s">
-        <v>304</v>
-      </c>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="111" t="s">
-        <v>305</v>
-      </c>
-      <c r="S14" s="106"/>
-      <c r="T14" s="111" t="s">
-        <v>306</v>
-      </c>
-      <c r="U14" s="106"/>
+      <c r="U14" s="122"/>
     </row>
     <row r="15" spans="1:21" ht="39" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="111" t="s">
-        <v>307</v>
-      </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
+      <c r="B15" s="132" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
     </row>
     <row r="16" spans="1:21" s="3" customFormat="1" ht="204" customHeight="1">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
     </row>
     <row r="17" spans="1:21" ht="33" customHeight="1">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="113" t="s">
-        <v>312</v>
-      </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112" t="s">
+      <c r="B17" s="137"/>
+      <c r="C17" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="112"/>
-      <c r="K17" s="113" t="s">
+      <c r="J17" s="137"/>
+      <c r="K17" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="L17" s="112"/>
+      <c r="L17" s="137"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -4566,10 +4910,10 @@
       <c r="S17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="114" t="s">
+      <c r="T17" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="U17" s="115"/>
+      <c r="U17" s="139"/>
     </row>
     <row r="18" spans="1:21" ht="20.25">
       <c r="I18" s="7"/>
@@ -4594,6 +4938,59 @@
     <protectedRange sqref="E2" name="区域1_2_3_1"/>
   </protectedRanges>
   <mergeCells count="69">
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="R9:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="B15:U15"/>
+    <mergeCell ref="A16:U16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="J12:L13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="S2:U2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="O3:S3"/>
@@ -4609,60 +5006,7 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I9:N9"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="S2:U2"/>
     <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="J12:L13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:U15"/>
-    <mergeCell ref="A16:U16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="R9:S10"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -4684,7 +5028,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="72" zoomScaleNormal="72" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -4713,30 +5057,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
     </row>
     <row r="2" spans="1:22" ht="38.25" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -4755,68 +5099,68 @@
       <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="99"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="134"/>
       <c r="T2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="82"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="83"/>
     </row>
     <row r="3" spans="1:22" ht="30.95" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="77" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="109" t="s">
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="127" t="s">
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="139" t="s">
+      <c r="V3" s="149" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="78" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="12" t="s">
         <v>74</v>
       </c>
@@ -4829,17 +5173,17 @@
       <c r="F4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="81"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="64"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="14" t="s">
         <v>20</v>
       </c>
@@ -4867,27 +5211,27 @@
       <c r="T4" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="U4" s="138"/>
-      <c r="V4" s="140"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="150"/>
     </row>
     <row r="5" spans="1:22" ht="33" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="81"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="99"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="134"/>
       <c r="L5" s="13"/>
       <c r="M5" s="15"/>
       <c r="N5" s="13"/>
@@ -4915,19 +5259,19 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="30.95" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
       <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="99"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="134"/>
       <c r="L6" s="13"/>
       <c r="M6" s="15"/>
       <c r="N6" s="13"/>
@@ -4941,19 +5285,19 @@
       <c r="V6" s="29"/>
     </row>
     <row r="7" spans="1:22" ht="30.95" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="99"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="134"/>
       <c r="L7" s="13"/>
       <c r="M7" s="15"/>
       <c r="N7" s="13"/>
@@ -4967,19 +5311,19 @@
       <c r="V7" s="29"/>
     </row>
     <row r="8" spans="1:22" ht="30.95" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="30" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="31"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="137"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="154"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="64"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="85"/>
       <c r="L8" s="33"/>
       <c r="M8" s="34"/>
       <c r="N8" s="33"/>
@@ -4993,266 +5337,266 @@
       <c r="V8" s="39"/>
     </row>
     <row r="9" spans="1:22" ht="48.75" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="95"/>
+      <c r="B9" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="119" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119" t="s">
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="86" t="s">
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="119" t="s">
+      <c r="R9" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="S9" s="119"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119" t="s">
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="V9" s="116"/>
+      <c r="V9" s="130"/>
     </row>
     <row r="10" spans="1:22" ht="91.5" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73" t="s">
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73" t="s">
+      <c r="F10" s="95"/>
+      <c r="G10" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="77" t="s">
+      <c r="H10" s="95"/>
+      <c r="I10" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="73" t="s">
+      <c r="J10" s="83"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73" t="s">
+      <c r="N10" s="95"/>
+      <c r="O10" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="116"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="130"/>
     </row>
     <row r="11" spans="1:22" ht="30.95" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
       <c r="Q11" s="40"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="159"/>
+      <c r="T11" s="159"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
     </row>
     <row r="12" spans="1:22" ht="33" customHeight="1">
-      <c r="A12" s="101"/>
-      <c r="B12" s="101" t="s">
+      <c r="A12" s="129"/>
+      <c r="B12" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101" t="s">
+      <c r="C12" s="129"/>
+      <c r="D12" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101" t="s">
+      <c r="E12" s="129"/>
+      <c r="F12" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101" t="s">
+      <c r="H12" s="129"/>
+      <c r="I12" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101" t="s">
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101" t="s">
+      <c r="N12" s="129"/>
+      <c r="O12" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="P12" s="101" t="s">
+      <c r="P12" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="119" t="s">
+      <c r="Q12" s="129"/>
+      <c r="R12" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
     </row>
     <row r="13" spans="1:22" ht="33" customHeight="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101" t="s">
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="101"/>
+      <c r="V13" s="129"/>
     </row>
     <row r="14" spans="1:22" ht="33" customHeight="1">
-      <c r="A14" s="101"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="132"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="156"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
     </row>
     <row r="15" spans="1:22" ht="30.95" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
     </row>
     <row r="16" spans="1:22" ht="204" customHeight="1">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112" t="s">
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -5292,61 +5636,6 @@
     <protectedRange sqref="P4:S4" name="区域1_41_1_4_1"/>
   </protectedRanges>
   <mergeCells count="71">
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B15:V15"/>
-    <mergeCell ref="A16:V16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="G9:L9"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="R9:T10"/>
@@ -5363,6 +5652,61 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L13"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A16:V16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B15:V15"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
@@ -5414,23 +5758,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -5460,23 +5804,23 @@
       <c r="M2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="146"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="163"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="12" t="s">
         <v>18</v>
       </c>
@@ -5501,17 +5845,17 @@
       <c r="M3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="73" t="s">
+      <c r="N3" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="73"/>
+      <c r="O3" s="95"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="143"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -5528,105 +5872,105 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A5" s="143"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="166"/>
+      <c r="B5" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73" t="s">
+      <c r="G5" s="95"/>
+      <c r="H5" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73" t="s">
+      <c r="I5" s="95"/>
+      <c r="J5" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73" t="s">
+      <c r="K5" s="95"/>
+      <c r="L5" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A6" s="143"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A7" s="143"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="30.95" customHeight="1">
       <c r="A8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
     </row>
     <row r="9" spans="1:17" ht="196.5" customHeight="1">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A10" s="41" t="s">
@@ -5690,14 +6034,6 @@
     <protectedRange sqref="M10" name="区域2_3_1"/>
   </protectedRanges>
   <mergeCells count="24">
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="B8:O8"/>
     <mergeCell ref="A9:O9"/>
@@ -5714,6 +6050,14 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
@@ -5732,6 +6076,235 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB094B34-660C-4FC3-96DF-939B3E23A0A5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="61" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="61" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="61" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="39" customHeight="1">
+      <c r="A1" s="168" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+    </row>
+    <row r="2" spans="1:16" s="62" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A2" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+    </row>
+    <row r="3" spans="1:16" s="62" customFormat="1" ht="30.2" customHeight="1">
+      <c r="A3" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="169" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="169"/>
+      <c r="F3" s="170" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="170"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+    </row>
+    <row r="4" spans="1:16" s="66" customFormat="1" ht="30.2" customHeight="1">
+      <c r="A4" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="171" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="171"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+    </row>
+    <row r="5" spans="1:16" s="66" customFormat="1" ht="30.2" customHeight="1">
+      <c r="A5" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="172" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="172"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+    </row>
+    <row r="6" spans="1:16" s="66" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A6" s="173" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+    </row>
+    <row r="7" spans="1:16" s="62" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="176" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="176" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="176"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="B2" name="区域3"/>
+    <protectedRange sqref="F7 B7" name="区域3_3"/>
+    <protectedRange sqref="F2 D2" name="区域1"/>
+  </protectedRanges>
+  <mergeCells count="13">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 B7:D7 F7:G7" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Nono-GIS/转表测试/sample/评估方法-样表.xlsx
+++ b/Nono-GIS/转表测试/sample/评估方法-样表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\体积比较大的那种报告\地价监测\2023黄石第四季度\1_新体系测算\转表测试\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486BACFF-2E17-4163-8E14-A06761BB143C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE194D1-633B-475B-B499-D4CBF4188200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1942,7 +1942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2180,15 +2180,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2198,49 +2243,19 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2252,33 +2267,6 @@
     <xf numFmtId="178" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2288,6 +2276,9 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2309,8 +2300,80 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2321,70 +2384,37 @@
     <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2399,42 +2429,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2446,6 +2440,28 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2461,21 +2477,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2778,7 +2781,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -2796,40 +2799,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="46.5" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="38.25" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="96" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="80"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="12" t="s">
         <v>117</v>
       </c>
@@ -2839,24 +2842,24 @@
       <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="80"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="K2" s="82"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="85"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
@@ -2866,64 +2869,64 @@
       <c r="Q2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="82"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="97"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="95" t="s">
+      <c r="U3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="95" t="s">
+      <c r="V3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="95"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A4" s="87"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
@@ -2966,8 +2969,8 @@
       <c r="S4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
       <c r="V4" s="12" t="s">
         <v>32</v>
       </c>
@@ -2976,17 +2979,17 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="8" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="87"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="85"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="52" t="s">
         <v>240</v>
       </c>
@@ -3035,16 +3038,16 @@
       <c r="U5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="96" t="s">
+      <c r="V5" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="W5" s="96" t="s">
+      <c r="W5" s="89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="177" t="s">
         <v>336</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -3102,12 +3105,12 @@
       <c r="U6" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
     </row>
     <row r="7" spans="1:23" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="177" t="s">
         <v>337</v>
       </c>
       <c r="C7" s="53" t="s">
@@ -3165,12 +3168,12 @@
       <c r="U7" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
     </row>
     <row r="8" spans="1:23" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="177" t="s">
         <v>338</v>
       </c>
       <c r="C8" s="53" t="s">
@@ -3228,101 +3231,101 @@
       <c r="U8" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
     </row>
     <row r="9" spans="1:23" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
     </row>
     <row r="10" spans="1:23" ht="164.25" customHeight="1">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
     </row>
     <row r="11" spans="1:23" ht="33" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="82" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="G11" s="89" t="s">
+      <c r="G11" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="91"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
       <c r="S11" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="92" t="s">
+      <c r="T11" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="94"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="87"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3348,6 +3351,14 @@
     <protectedRange sqref="S4" name="区域1_41_1_4_2"/>
   </protectedRanges>
   <mergeCells count="24">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B9:W9"/>
     <mergeCell ref="A10:W10"/>
@@ -3364,14 +3375,6 @@
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
@@ -3417,33 +3420,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="45" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="84" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="80"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -3477,130 +3480,130 @@
       <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="99" t="s">
+      <c r="O2" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="P2" s="82"/>
+      <c r="P2" s="97"/>
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="102" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="95" t="s">
+      <c r="M3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="95" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95" t="s">
+      <c r="H4" s="88"/>
+      <c r="I4" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" ht="111" customHeight="1">
-      <c r="A5" s="95"/>
-      <c r="B5" s="103" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="95"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="103" t="s">
+      <c r="H5" s="88"/>
+      <c r="I5" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95" t="s">
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95" t="s">
+      <c r="N5" s="88"/>
+      <c r="O5" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="95"/>
+      <c r="P5" s="88"/>
     </row>
     <row r="6" spans="1:24" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -3608,18 +3611,18 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="37.5">
-      <c r="A7" s="95"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="95"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="12" t="s">
         <v>60</v>
       </c>
@@ -3629,14 +3632,14 @@
       <c r="K7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A8" s="95"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="52" t="s">
         <v>212</v>
       </c>
@@ -3670,86 +3673,86 @@
       <c r="L8" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="M8" s="103" t="s">
+      <c r="M8" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="N8" s="95"/>
-      <c r="O8" s="103" t="s">
+      <c r="N8" s="88"/>
+      <c r="O8" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="P8" s="95"/>
+      <c r="P8" s="88"/>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
     </row>
     <row r="10" spans="1:24" ht="130.5" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
     </row>
     <row r="11" spans="1:24" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="82"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="51"/>
       <c r="H11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="99" t="s">
+      <c r="I11" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="J11" s="83"/>
-      <c r="K11" s="82"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="97"/>
       <c r="L11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="105" t="s">
+      <c r="M11" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="107"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="104"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3764,23 +3767,6 @@
     <protectedRange sqref="E2" name="区域1_2_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:E3"/>
@@ -3797,6 +3783,23 @@
     <mergeCell ref="O5:P7"/>
     <mergeCell ref="M3:P4"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M11:P11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -3837,37 +3840,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="54.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
     </row>
     <row r="2" spans="1:20" s="8" customFormat="1" ht="60.95" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="80"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -3883,81 +3886,81 @@
       <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="95"/>
+      <c r="J2" s="88"/>
       <c r="K2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="M2" s="87"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="99" t="s">
+      <c r="O2" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="P2" s="85"/>
+      <c r="P2" s="93"/>
       <c r="Q2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="69.95" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="116" t="s">
+      <c r="L3" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="117"/>
-      <c r="N3" s="110" t="s">
+      <c r="M3" s="114"/>
+      <c r="N3" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="108" t="s">
+      <c r="O3" s="93"/>
+      <c r="P3" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="87" t="s">
+      <c r="Q3" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" ht="141.94999999999999" customHeight="1">
-      <c r="A4" s="87"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="10" t="s">
         <v>74</v>
       </c>
@@ -3976,30 +3979,30 @@
       <c r="G4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="119"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="116"/>
       <c r="N4" s="10" t="s">
         <v>77</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="87" t="s">
+      <c r="P4" s="119"/>
+      <c r="Q4" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87" t="s">
+      <c r="R4" s="80"/>
+      <c r="S4" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="87"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A5" s="87"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="11" t="s">
         <v>223</v>
       </c>
@@ -4030,10 +4033,10 @@
       <c r="K5" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="117" t="s">
         <v>231</v>
       </c>
-      <c r="M5" s="121"/>
+      <c r="M5" s="118"/>
       <c r="N5" s="10" t="s">
         <v>232</v>
       </c>
@@ -4043,98 +4046,98 @@
       <c r="P5" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="Q5" s="86" t="s">
+      <c r="Q5" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="R5" s="87"/>
-      <c r="S5" s="86" t="s">
+      <c r="R5" s="80"/>
+      <c r="S5" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="T5" s="87"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" s="8" customFormat="1" ht="86.25" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="141.75" customHeight="1">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
     </row>
     <row r="8" spans="1:20" ht="33" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
       <c r="O8" s="12"/>
       <c r="P8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="113" t="s">
+      <c r="Q8" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4156,6 +4159,17 @@
     <protectedRange sqref="E2" name="区域1_2_3"/>
   </protectedRanges>
   <mergeCells count="27">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A7:T7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="G8:N8"/>
@@ -4172,17 +4186,6 @@
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="B6:T6"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -4225,38 +4228,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="42" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
     </row>
     <row r="2" spans="1:21" ht="56.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
@@ -4272,19 +4275,19 @@
       <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="O2" s="87"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="12" t="s">
         <v>6</v>
       </c>
@@ -4294,52 +4297,52 @@
       <c r="R2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="103" t="s">
+      <c r="S2" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
     </row>
     <row r="3" spans="1:21" ht="48" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="87" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="95" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95" t="s">
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="95" t="s">
+      <c r="U3" s="88" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="37.5">
-      <c r="A4" s="87"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="12" t="s">
         <v>74</v>
       </c>
@@ -4352,20 +4355,20 @@
       <c r="F4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="95"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="12" t="s">
         <v>120</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="146" t="s">
+      <c r="K4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="14" t="s">
         <v>21</v>
       </c>
@@ -4387,16 +4390,16 @@
       <c r="S4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
     </row>
     <row r="5" spans="1:21" ht="38.1" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="103" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="100" t="s">
         <v>237</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -4405,20 +4408,20 @@
       <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="95"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="56" t="s">
         <v>203</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="L5" s="91"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="59" t="s">
         <v>241</v>
       </c>
@@ -4448,30 +4451,30 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="38.1" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="H6" s="95"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="56" t="s">
         <v>243</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="L6" s="134"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="15" t="s">
         <v>246</v>
       </c>
@@ -4501,30 +4504,30 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="38.1" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="103" t="s">
+      <c r="G7" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="H7" s="95"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="56" t="s">
         <v>256</v>
       </c>
       <c r="J7" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="K7" s="145" t="s">
+      <c r="K7" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="L7" s="134"/>
+      <c r="L7" s="123"/>
       <c r="M7" s="15" t="s">
         <v>259</v>
       </c>
@@ -4554,30 +4557,30 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="38.1" customHeight="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="100" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="95"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="56" t="s">
         <v>269</v>
       </c>
       <c r="J8" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="K8" s="145" t="s">
+      <c r="K8" s="122" t="s">
         <v>271</v>
       </c>
-      <c r="L8" s="134"/>
+      <c r="L8" s="123"/>
       <c r="M8" s="15" t="s">
         <v>272</v>
       </c>
@@ -4607,111 +4610,111 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="95" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="125" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125" t="s">
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="102" t="s">
+      <c r="P9" s="146"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="102"/>
-      <c r="T9" s="144" t="s">
+      <c r="S9" s="107"/>
+      <c r="T9" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="U9" s="144" t="s">
+      <c r="U9" s="125" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="54" customHeight="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95" t="s">
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="87" t="s">
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="87"/>
-      <c r="K10" s="110" t="s">
+      <c r="J10" s="80"/>
+      <c r="K10" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="142"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="85"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="93"/>
       <c r="O10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="95" t="s">
+      <c r="P10" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
     </row>
     <row r="11" spans="1:21" ht="52.5" customHeight="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="103" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="123" t="s">
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="144" t="s">
         <v>281</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="123" t="s">
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="J11" s="124"/>
-      <c r="K11" s="99" t="s">
+      <c r="J11" s="145"/>
+      <c r="K11" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="85"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="93"/>
       <c r="O11" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="P11" s="103" t="s">
+      <c r="P11" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="140" t="s">
+      <c r="Q11" s="88"/>
+      <c r="R11" s="126" t="s">
         <v>286</v>
       </c>
-      <c r="S11" s="141"/>
+      <c r="S11" s="127"/>
       <c r="T11" s="56" t="s">
         <v>287</v>
       </c>
@@ -4720,187 +4723,187 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="54" customHeight="1">
-      <c r="A12" s="122"/>
-      <c r="B12" s="130" t="s">
+      <c r="A12" s="132"/>
+      <c r="B12" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130" t="s">
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="135" t="s">
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="N12" s="135"/>
-      <c r="O12" s="122" t="s">
+      <c r="N12" s="137"/>
+      <c r="O12" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="129" t="s">
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
     </row>
     <row r="13" spans="1:21" ht="54" customHeight="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="129" t="s">
+      <c r="A13" s="132"/>
+      <c r="B13" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129" t="s">
+      <c r="C13" s="130"/>
+      <c r="D13" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="133" t="s">
+      <c r="E13" s="130"/>
+      <c r="F13" s="136" t="s">
         <v>126</v>
       </c>
       <c r="G13" s="78"/>
-      <c r="H13" s="133" t="s">
+      <c r="H13" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="129" t="s">
+      <c r="I13" s="93"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129" t="s">
+      <c r="S13" s="130"/>
+      <c r="T13" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="129"/>
+      <c r="U13" s="130"/>
     </row>
     <row r="14" spans="1:21" ht="54" customHeight="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="129" t="s">
+      <c r="A14" s="132"/>
+      <c r="B14" s="130" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="133" t="s">
+      <c r="C14" s="130"/>
+      <c r="D14" s="136" t="s">
         <v>290</v>
       </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="136" t="s">
+      <c r="E14" s="123"/>
+      <c r="F14" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="G14" s="134"/>
-      <c r="H14" s="136" t="s">
+      <c r="G14" s="123"/>
+      <c r="H14" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="I14" s="134"/>
-      <c r="J14" s="132" t="s">
+      <c r="I14" s="123"/>
+      <c r="J14" s="131" t="s">
         <v>293</v>
       </c>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="129" t="s">
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="130" t="s">
         <v>294</v>
       </c>
-      <c r="N14" s="129"/>
-      <c r="O14" s="131" t="s">
+      <c r="N14" s="130"/>
+      <c r="O14" s="140" t="s">
         <v>295</v>
       </c>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="132" t="s">
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131" t="s">
         <v>296</v>
       </c>
-      <c r="S14" s="122"/>
-      <c r="T14" s="132" t="s">
+      <c r="S14" s="132"/>
+      <c r="T14" s="131" t="s">
         <v>297</v>
       </c>
-      <c r="U14" s="122"/>
+      <c r="U14" s="132"/>
     </row>
     <row r="15" spans="1:21" ht="39" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="131" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
     </row>
     <row r="16" spans="1:21" s="3" customFormat="1" ht="204" customHeight="1">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
     </row>
     <row r="17" spans="1:21" ht="33" customHeight="1">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="133" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137" t="s">
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137" t="s">
+      <c r="J17" s="133"/>
+      <c r="K17" s="133" t="s">
         <v>200</v>
       </c>
-      <c r="L17" s="137"/>
+      <c r="L17" s="133"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -4910,10 +4913,10 @@
       <c r="S17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="138" t="s">
+      <c r="T17" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="U17" s="139"/>
+      <c r="U17" s="135"/>
     </row>
     <row r="18" spans="1:21" ht="20.25">
       <c r="I18" s="7"/>
@@ -4938,59 +4941,6 @@
     <protectedRange sqref="E2" name="区域1_2_3_1"/>
   </protectedRanges>
   <mergeCells count="69">
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="R9:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="B15:U15"/>
-    <mergeCell ref="A16:U16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="J12:L13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="S2:U2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="O3:S3"/>
@@ -5007,6 +4957,59 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I9:N9"/>
     <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="J12:L13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:U15"/>
+    <mergeCell ref="A16:U16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="R9:S10"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -5057,37 +5060,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
     </row>
     <row r="2" spans="1:22" ht="38.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -5099,68 +5102,68 @@
       <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="82"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="97"/>
       <c r="M2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="82"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="97"/>
       <c r="Q2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="134"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="123"/>
       <c r="T2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="81"/>
-      <c r="V2" s="83"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="98"/>
     </row>
     <row r="3" spans="1:22" ht="30.95" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="81" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="142" t="s">
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="147" t="s">
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="149" t="s">
+      <c r="V3" s="159" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="78" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="12" t="s">
         <v>74</v>
       </c>
@@ -5173,17 +5176,17 @@
       <c r="F4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="82"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="85"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="14" t="s">
         <v>20</v>
       </c>
@@ -5211,27 +5214,27 @@
       <c r="T4" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="U4" s="148"/>
-      <c r="V4" s="150"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="160"/>
     </row>
     <row r="5" spans="1:22" ht="33" customHeight="1">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="134"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="123"/>
       <c r="L5" s="13"/>
       <c r="M5" s="15"/>
       <c r="N5" s="13"/>
@@ -5259,19 +5262,19 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="30.95" customHeight="1">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="97"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="134"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="123"/>
       <c r="L6" s="13"/>
       <c r="M6" s="15"/>
       <c r="N6" s="13"/>
@@ -5285,19 +5288,19 @@
       <c r="V6" s="29"/>
     </row>
     <row r="7" spans="1:22" ht="30.95" customHeight="1">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="134"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="123"/>
       <c r="L7" s="13"/>
       <c r="M7" s="15"/>
       <c r="N7" s="13"/>
@@ -5311,19 +5314,19 @@
       <c r="V7" s="29"/>
     </row>
     <row r="8" spans="1:22" ht="30.95" customHeight="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
       <c r="E8" s="30" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="31"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="154"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="157"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="85"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="93"/>
       <c r="L8" s="33"/>
       <c r="M8" s="34"/>
       <c r="N8" s="33"/>
@@ -5337,266 +5340,266 @@
       <c r="V8" s="39"/>
     </row>
     <row r="9" spans="1:22" ht="48.75" customHeight="1">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="125" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125" t="s">
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="102" t="s">
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="125" t="s">
+      <c r="R9" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125" t="s">
+      <c r="S9" s="146"/>
+      <c r="T9" s="146"/>
+      <c r="U9" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="V9" s="130"/>
+      <c r="V9" s="139"/>
     </row>
     <row r="10" spans="1:22" ht="91.5" customHeight="1">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95" t="s">
+      <c r="D10" s="88"/>
+      <c r="E10" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95" t="s">
+      <c r="F10" s="88"/>
+      <c r="G10" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="81" t="s">
+      <c r="H10" s="88"/>
+      <c r="I10" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="83"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="95" t="s">
+      <c r="J10" s="98"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95" t="s">
+      <c r="N10" s="88"/>
+      <c r="O10" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="130"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146"/>
+      <c r="U10" s="146"/>
+      <c r="V10" s="139"/>
     </row>
     <row r="11" spans="1:22" ht="30.95" customHeight="1">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
       <c r="Q11" s="40"/>
-      <c r="R11" s="159"/>
-      <c r="S11" s="159"/>
-      <c r="T11" s="159"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
     </row>
     <row r="12" spans="1:22" ht="33" customHeight="1">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129" t="s">
+      <c r="A12" s="130"/>
+      <c r="B12" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129" t="s">
+      <c r="C12" s="130"/>
+      <c r="D12" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129" t="s">
+      <c r="E12" s="130"/>
+      <c r="F12" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129" t="s">
+      <c r="H12" s="130"/>
+      <c r="I12" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129" t="s">
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129" t="s">
+      <c r="N12" s="130"/>
+      <c r="O12" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="P12" s="129" t="s">
+      <c r="P12" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="125" t="s">
+      <c r="Q12" s="130"/>
+      <c r="R12" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="125"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="146"/>
+      <c r="U12" s="146"/>
+      <c r="V12" s="146"/>
     </row>
     <row r="13" spans="1:22" ht="33" customHeight="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129" t="s">
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129" t="s">
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="129"/>
+      <c r="V13" s="130"/>
     </row>
     <row r="14" spans="1:22" ht="33" customHeight="1">
-      <c r="A14" s="129"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="156"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="153"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129"/>
-      <c r="U14" s="129"/>
-      <c r="V14" s="129"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="130"/>
     </row>
     <row r="15" spans="1:22" ht="30.95" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
     </row>
     <row r="16" spans="1:22" ht="204" customHeight="1">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -5636,6 +5639,61 @@
     <protectedRange sqref="P4:S4" name="区域1_41_1_4_1"/>
   </protectedRanges>
   <mergeCells count="71">
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B15:V15"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="A16:V16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L13"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="R9:T10"/>
@@ -5652,61 +5710,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A16:V16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B15:V15"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
@@ -5758,23 +5761,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -5804,23 +5807,23 @@
       <c r="M2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="162"/>
-      <c r="O2" s="163"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="167"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="95"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="12" t="s">
         <v>18</v>
       </c>
@@ -5845,17 +5848,17 @@
       <c r="M3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="95" t="s">
+      <c r="N3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="95"/>
+      <c r="O3" s="88"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="166"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="A4" s="164"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -5872,105 +5875,105 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A5" s="166"/>
-      <c r="B5" s="95" t="s">
+      <c r="A5" s="164"/>
+      <c r="B5" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95" t="s">
+      <c r="E5" s="88"/>
+      <c r="F5" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95" t="s">
+      <c r="G5" s="88"/>
+      <c r="H5" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95" t="s">
+      <c r="I5" s="88"/>
+      <c r="J5" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95" t="s">
+      <c r="K5" s="88"/>
+      <c r="L5" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A7" s="166"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="30.95" customHeight="1">
       <c r="A8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
     </row>
     <row r="9" spans="1:17" ht="196.5" customHeight="1">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A10" s="41" t="s">
@@ -6034,6 +6037,14 @@
     <protectedRange sqref="M10" name="区域2_3_1"/>
   </protectedRanges>
   <mergeCells count="24">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="B8:O8"/>
     <mergeCell ref="A9:O9"/>
@@ -6050,14 +6061,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
@@ -6103,15 +6106,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="173" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
     </row>
     <row r="2" spans="1:16" s="62" customFormat="1" ht="18.95" customHeight="1">
       <c r="A2" s="68" t="s">
@@ -6149,18 +6152,18 @@
       <c r="A3" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="174" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169" t="s">
+      <c r="C3" s="174"/>
+      <c r="D3" s="174" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="170" t="s">
+      <c r="E3" s="174"/>
+      <c r="F3" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="170"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
@@ -6175,18 +6178,18 @@
       <c r="A4" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="176" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171" t="s">
+      <c r="C4" s="176"/>
+      <c r="D4" s="176" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171" t="s">
+      <c r="E4" s="176"/>
+      <c r="F4" s="176" t="s">
         <v>320</v>
       </c>
-      <c r="G4" s="171"/>
+      <c r="G4" s="176"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
@@ -6201,18 +6204,18 @@
       <c r="A5" s="67" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="168" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172" t="s">
+      <c r="C5" s="168"/>
+      <c r="D5" s="168" t="s">
         <v>318</v>
       </c>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172" t="s">
+      <c r="E5" s="168"/>
+      <c r="F5" s="168" t="s">
         <v>317</v>
       </c>
-      <c r="G5" s="172"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="61"/>
       <c r="I5" s="61"/>
       <c r="J5" s="61"/>
@@ -6224,15 +6227,15 @@
       <c r="P5" s="61"/>
     </row>
     <row r="6" spans="1:16" s="66" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="169" t="s">
         <v>316</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="175"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="171"/>
       <c r="H6" s="61"/>
       <c r="I6" s="61"/>
       <c r="J6" s="61"/>
@@ -6247,18 +6250,18 @@
       <c r="A7" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="172" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="F7" s="176" t="s">
+      <c r="F7" s="172" t="s">
         <v>312</v>
       </c>
-      <c r="G7" s="176"/>
+      <c r="G7" s="172"/>
       <c r="H7" s="63"/>
       <c r="I7" s="63"/>
       <c r="J7" s="63"/>
@@ -6276,12 +6279,6 @@
     <protectedRange sqref="F2 D2" name="区域1"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -6289,6 +6286,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="4">
